--- a/Matlab仿真代码/DFRFT/PAPR-SLM-U-Analyze/matFiles/datas.xlsx
+++ b/Matlab仿真代码/DFRFT/PAPR-SLM-U-Analyze/matFiles/datas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>APPR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,6 +30,10 @@
   </si>
   <si>
     <t>loop=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAPR-SLM-Us-0605-02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -355,13 +360,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -811,6 +819,671 @@
         <v>0</v>
       </c>
       <c r="AK5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0.9998779296875</v>
+      </c>
+      <c r="J9">
+        <v>0.99957275390625</v>
+      </c>
+      <c r="K9">
+        <v>0.99688720703125</v>
+      </c>
+      <c r="L9">
+        <v>0.99017333984375</v>
+      </c>
+      <c r="M9">
+        <v>0.972900390625</v>
+      </c>
+      <c r="N9">
+        <v>0.94781494140625</v>
+      </c>
+      <c r="O9">
+        <v>0.90313720703125</v>
+      </c>
+      <c r="P9">
+        <v>0.836181640625</v>
+      </c>
+      <c r="Q9">
+        <v>0.75665283203125</v>
+      </c>
+      <c r="R9">
+        <v>0.6600341796875</v>
+      </c>
+      <c r="S9">
+        <v>0.55584716796875</v>
+      </c>
+      <c r="T9">
+        <v>0.45721435546875</v>
+      </c>
+      <c r="U9">
+        <v>0.364013671875</v>
+      </c>
+      <c r="V9">
+        <v>0.28094482421875</v>
+      </c>
+      <c r="W9">
+        <v>0.2108154296875</v>
+      </c>
+      <c r="X9">
+        <v>0.15692138671875</v>
+      </c>
+      <c r="Y9">
+        <v>0.11126708984375</v>
+      </c>
+      <c r="Z9">
+        <v>7.928466796875E-2</v>
+      </c>
+      <c r="AA9">
+        <v>5.633544921875E-2</v>
+      </c>
+      <c r="AB9">
+        <v>3.90625E-2</v>
+      </c>
+      <c r="AC9">
+        <v>2.42919921875E-2</v>
+      </c>
+      <c r="AD9">
+        <v>1.55029296875E-2</v>
+      </c>
+      <c r="AE9">
+        <v>8.72802734375E-3</v>
+      </c>
+      <c r="AF9">
+        <v>5.37109375E-3</v>
+      </c>
+      <c r="AG9">
+        <v>3.72314453125E-3</v>
+      </c>
+      <c r="AH9">
+        <v>2.25830078125E-3</v>
+      </c>
+      <c r="AI9">
+        <v>1.3427734375E-3</v>
+      </c>
+      <c r="AJ9">
+        <v>6.7138671875E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.99993896484375</v>
+      </c>
+      <c r="I10">
+        <v>0.99957275390625</v>
+      </c>
+      <c r="J10">
+        <v>0.998291015625</v>
+      </c>
+      <c r="K10">
+        <v>0.99444580078125</v>
+      </c>
+      <c r="L10">
+        <v>0.9805908203125</v>
+      </c>
+      <c r="M10">
+        <v>0.95123291015625</v>
+      </c>
+      <c r="N10">
+        <v>0.89532470703125</v>
+      </c>
+      <c r="O10">
+        <v>0.81591796875</v>
+      </c>
+      <c r="P10">
+        <v>0.70184326171875</v>
+      </c>
+      <c r="Q10">
+        <v>0.5716552734375</v>
+      </c>
+      <c r="R10">
+        <v>0.4359130859375</v>
+      </c>
+      <c r="S10">
+        <v>0.315185546875</v>
+      </c>
+      <c r="T10">
+        <v>0.21630859375</v>
+      </c>
+      <c r="U10">
+        <v>0.1357421875</v>
+      </c>
+      <c r="V10">
+        <v>8.160400390625E-2</v>
+      </c>
+      <c r="W10">
+        <v>4.62646484375E-2</v>
+      </c>
+      <c r="X10">
+        <v>2.5146484375E-2</v>
+      </c>
+      <c r="Y10">
+        <v>1.312255859375E-2</v>
+      </c>
+      <c r="Z10">
+        <v>7.2021484375E-3</v>
+      </c>
+      <c r="AA10">
+        <v>3.47900390625E-3</v>
+      </c>
+      <c r="AB10">
+        <v>1.40380859375E-3</v>
+      </c>
+      <c r="AC10">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="AD10">
+        <v>4.8828125E-4</v>
+      </c>
+      <c r="AE10">
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0.99993896484375</v>
+      </c>
+      <c r="I11">
+        <v>0.99932861328125</v>
+      </c>
+      <c r="J11">
+        <v>0.9962158203125</v>
+      </c>
+      <c r="K11">
+        <v>0.987548828125</v>
+      </c>
+      <c r="L11">
+        <v>0.9600830078125</v>
+      </c>
+      <c r="M11">
+        <v>0.9051513671875</v>
+      </c>
+      <c r="N11">
+        <v>0.80718994140625</v>
+      </c>
+      <c r="O11">
+        <v>0.6661376953125</v>
+      </c>
+      <c r="P11">
+        <v>0.498291015625</v>
+      </c>
+      <c r="Q11">
+        <v>0.32794189453125</v>
+      </c>
+      <c r="R11">
+        <v>0.19110107421875</v>
+      </c>
+      <c r="S11">
+        <v>9.918212890625E-2</v>
+      </c>
+      <c r="T11">
+        <v>4.4677734375E-2</v>
+      </c>
+      <c r="U11">
+        <v>1.885986328125E-2</v>
+      </c>
+      <c r="V11">
+        <v>6.04248046875E-3</v>
+      </c>
+      <c r="W11">
+        <v>1.77001953125E-3</v>
+      </c>
+      <c r="X11">
+        <v>5.4931640625E-4</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>6.103515625E-5</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>6.103515625E-5</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.9998779296875</v>
+      </c>
+      <c r="I12">
+        <v>0.998779296875</v>
+      </c>
+      <c r="J12">
+        <v>0.99456787109375</v>
+      </c>
+      <c r="K12">
+        <v>0.982177734375</v>
+      </c>
+      <c r="L12">
+        <v>0.94342041015625</v>
+      </c>
+      <c r="M12">
+        <v>0.86297607421875</v>
+      </c>
+      <c r="N12">
+        <v>0.72845458984375</v>
+      </c>
+      <c r="O12">
+        <v>0.548095703125</v>
+      </c>
+      <c r="P12">
+        <v>0.3509521484375</v>
+      </c>
+      <c r="Q12">
+        <v>0.18853759765625</v>
+      </c>
+      <c r="R12">
+        <v>8.587646484375E-2</v>
+      </c>
+      <c r="S12">
+        <v>3.0517578125E-2</v>
+      </c>
+      <c r="T12">
+        <v>9.21630859375E-3</v>
+      </c>
+      <c r="U12">
+        <v>2.685546875E-3</v>
+      </c>
+      <c r="V12">
+        <v>6.7138671875E-4</v>
+      </c>
+      <c r="W12" s="1">
+        <v>6.103515625E-5</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0.99981689453125</v>
+      </c>
+      <c r="I13">
+        <v>0.9984130859375</v>
+      </c>
+      <c r="J13">
+        <v>0.99261474609375</v>
+      </c>
+      <c r="K13">
+        <v>0.97509765625</v>
+      </c>
+      <c r="L13">
+        <v>0.92413330078125</v>
+      </c>
+      <c r="M13">
+        <v>0.82122802734375</v>
+      </c>
+      <c r="N13">
+        <v>0.65472412109375</v>
+      </c>
+      <c r="O13">
+        <v>0.4434814453125</v>
+      </c>
+      <c r="P13">
+        <v>0.24627685546875</v>
+      </c>
+      <c r="Q13">
+        <v>0.10784912109375</v>
+      </c>
+      <c r="R13">
+        <v>3.662109375E-2</v>
+      </c>
+      <c r="S13">
+        <v>9.3994140625E-3</v>
+      </c>
+      <c r="T13">
+        <v>2.0751953125E-3</v>
+      </c>
+      <c r="U13">
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0.99981689453125</v>
+      </c>
+      <c r="I14">
+        <v>0.9979248046875</v>
+      </c>
+      <c r="J14">
+        <v>0.9912109375</v>
+      </c>
+      <c r="K14">
+        <v>0.9697265625</v>
+      </c>
+      <c r="L14">
+        <v>0.90606689453125</v>
+      </c>
+      <c r="M14">
+        <v>0.78192138671875</v>
+      </c>
+      <c r="N14">
+        <v>0.590087890625</v>
+      </c>
+      <c r="O14">
+        <v>0.36224365234375</v>
+      </c>
+      <c r="P14">
+        <v>0.175537109375</v>
+      </c>
+      <c r="Q14">
+        <v>6.40869140625E-2</v>
+      </c>
+      <c r="R14">
+        <v>1.7822265625E-2</v>
+      </c>
+      <c r="S14">
+        <v>2.99072265625E-3</v>
+      </c>
+      <c r="T14">
+        <v>4.2724609375E-4</v>
+      </c>
+      <c r="U14" s="1">
+        <v>6.103515625E-5</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>0</v>
       </c>
     </row>
